--- a/data/case1/18/Q_device_3.xlsx
+++ b/data/case1/18/Q_device_3.xlsx
@@ -57,39 +57,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.016162307490952783</v>
+        <v>-0.022571533854122475</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.016182126455324991</v>
+        <v>-0.022620277743222433</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.029013899906183499</v>
+        <v>-0.022936736118728825</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.03634494118512023</v>
+        <v>-0.043120838565710057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.056903649770844521</v>
+        <v>-0.0011949061696823679</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.05690840266563868</v>
+        <v>-0.0010070942439798769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.054978288236429293</v>
+        <v>-0.079941757706758973</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.05497968618484457</v>
+        <v>-0.079976916014463731</v>
       </c>
     </row>
   </sheetData>
